--- a/Splendor_Cartes - sans requetes.xlsx
+++ b/Splendor_Cartes - sans requetes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Cours\2018-2019\MA-24\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet\SplendorGameJoaoCyril\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Niveau (1 à 3, 4==noble)</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Coût Diamant (5)</t>
+  </si>
+  <si>
+    <t>insertLIGNE(A3)</t>
   </si>
 </sst>
 </file>
@@ -381,32 +384,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="62.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875"/>
-    <col min="13" max="13" width="29.44140625" customWidth="1"/>
-    <col min="14" max="1025" width="11.5546875"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="61.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="14" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -449,8 +452,16 @@
         <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A2&amp;","&amp;C2&amp;")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (2, 0,4,3)</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D2)-3&amp;","&amp;D2&amp;")"</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 1,)</v>
+      </c>
+      <c r="K2" t="str">
+        <f>"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;IF(ISBLANK(C2),"0",C2)&amp;","&amp;D3&amp;")"</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 3,4)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -467,8 +478,15 @@
         <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A3&amp;","&amp;C3&amp;")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (3, 0,4,3)</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D3)-3&amp;","&amp;D3&amp;")"</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (3, 1,4)</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -485,11 +503,15 @@
         <v>3</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I11" si="0">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
+        <f t="shared" ref="I4:I11" si="1">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (4, 0,4,3)</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 1,)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -503,11 +525,15 @@
         <v>4</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (5, 0,4,3)</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (5, 1,)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -521,11 +547,15 @@
         <v>4</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (6, 0,4,3)</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (6, 1,4)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -542,11 +572,15 @@
         <v>3</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (7, 0,4,3)</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (7, 1,3)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -563,11 +597,15 @@
         <v>3</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (8, 0,4,3)</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 1,)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -584,11 +622,15 @@
         <v>3</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (9, 0,4,3)</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 1,3)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -602,11 +644,15 @@
         <v>4</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (10, 0,4,3)</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (10, 1,)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -623,11 +669,15 @@
         <v>3</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (11, 0,4,3)</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (11, 1,3)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -647,8 +697,12 @@
         <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B12 &amp; "," &amp; A12 &amp; "," &amp; C12 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (12,4,3,5)</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (12, 1,)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -665,11 +719,15 @@
         <v>3</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I76" si="1">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
+        <f t="shared" ref="I13:I76" si="2">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (13,3,3,5)</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (13, 1,7)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -692,11 +750,15 @@
         <v>5</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (14,2,3,3)</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 1,3)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -719,11 +781,15 @@
         <v>3</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (15,5,3,3)</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 1,5)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -743,11 +809,15 @@
         <v>3</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (16,1,3,4)</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 1,3)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -767,11 +837,15 @@
         <v>3</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (17,2,3,4)</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 1,)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -785,11 +859,15 @@
         <v>7</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (18,5,3,4)</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (18, 1,)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -806,11 +884,15 @@
         <v>3</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (19,5,3,5)</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (19, 1,)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -824,11 +906,15 @@
         <v>7</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (20,1,3,4)</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (20, 1,)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -848,11 +934,15 @@
         <v>6</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (21,4,3,4)</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 1,)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -869,11 +959,15 @@
         <v>7</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (22,2,3,5)</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (22, 1,)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -887,11 +981,15 @@
         <v>7</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (23,3,3,4)</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (23, 1,7)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -914,11 +1012,15 @@
         <v>3</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (24,1,3,3)</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 1,)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -941,11 +1043,15 @@
         <v>3</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (25,4,3,3)</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 1,3)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -959,11 +1065,15 @@
         <v>7</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (26,2,3,4)</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (26, 1,)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -983,11 +1093,15 @@
         <v>3</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (27,3,3,4)</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (27, 1,6)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1001,11 +1115,15 @@
         <v>7</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (28,4,3,4)</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (28, 1,)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1022,11 +1140,15 @@
         <v>7</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (29,1,3,5)</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (29, 1,3)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1046,11 +1168,15 @@
         <v>3</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (30,5,3,4)</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (30, 1,3)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1073,11 +1199,15 @@
         <v>3</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (31,3,3,3)</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 1,3)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1091,11 +1221,15 @@
         <v>5</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (32,5,2,2)</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (32, 1,5)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1115,11 +1249,15 @@
         <v>3</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (33,1,2,1)</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 1,2)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1139,11 +1277,15 @@
         <v>2</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (34,5,2,1)</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (34, 1,2)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1163,11 +1305,15 @@
         <v>2</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (35,5,2,2)</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (35, 1,4)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1187,11 +1333,15 @@
         <v>2</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (36,5,2,1)</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 1,3)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1208,11 +1358,15 @@
         <v>5</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (37,2,2,2)</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (37, 1,)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1232,11 +1386,15 @@
         <v>2</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (38,4,2,2)</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (38, 1,1)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1256,11 +1414,15 @@
         <v>2</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (39,4,2,1)</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 1,3)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1280,11 +1442,15 @@
         <v>4</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (40,2,2,2)</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 1,)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1298,11 +1464,15 @@
         <v>5</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (41,2,2,2)</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (41, 1,)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1319,11 +1489,15 @@
         <v>5</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (42,3,2,2)</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (42, 1,3)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1340,11 +1514,15 @@
         <v>3</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (43,1,2,2)</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (43, 1,)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1358,11 +1536,15 @@
         <v>6</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (44,5,2,3)</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (44, 1,)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1376,11 +1558,15 @@
         <v>6</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (45,4,2,3)</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (45, 1,)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1400,11 +1586,15 @@
         <v>2</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (46,2,2,1)</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 1,)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1424,11 +1614,15 @@
         <v>3</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (47,3,2,1)</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 1,)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1442,11 +1636,15 @@
         <v>6</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (48,1,2,3)</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (48, 1,6)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1466,11 +1664,15 @@
         <v>2</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (49,4,2,1)</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 1,)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1484,11 +1686,15 @@
         <v>5</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (50,3,2,2)</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (50, 1,)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1508,11 +1714,15 @@
         <v>3</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (51,2,2,1)</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (51, 1,3)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1526,11 +1736,15 @@
         <v>5</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (52,4,2,2)</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (52, 1,)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1550,11 +1764,15 @@
         <v>2</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (53,1,2,1)</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (53, 1,2)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1568,11 +1786,15 @@
         <v>5</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (54,1,2,2)</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (54, 1,)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1592,11 +1814,15 @@
         <v>3</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (55,3,2,1)</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 1,)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1613,11 +1839,15 @@
         <v>5</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (56,4,2,2)</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (56, 1,)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1637,11 +1867,15 @@
         <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (57,3,2,2)</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 1,2)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1661,11 +1895,15 @@
         <v>1</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (58,1,2,2)</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 1,)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1682,11 +1920,15 @@
         <v>3</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (59,5,2,2)</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (59, 1,5)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1700,11 +1942,15 @@
         <v>6</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (60,2,2,3)</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (60, 1,)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1718,11 +1964,15 @@
         <v>6</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (61,3,2,3)</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (61, 1,)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1745,8 +1995,12 @@
         <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B62 &amp; "," &amp; A62 &amp; "," &amp; C62 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (62,3,1,0)</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (62, 1,3)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1760,11 +2014,15 @@
         <v>3</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (63,2,1,0)</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (63, 1,3)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1784,11 +2042,15 @@
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (64,1,1,0)</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (64, 1,1)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1808,11 +2070,15 @@
         <v>3</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (65,5,1,0)</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 1,)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1835,11 +2101,15 @@
         <v>1</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (66,4,1,0)</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 1,2)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1856,11 +2126,15 @@
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (67,5,1,0)</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J101" si="3">"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D67)-3&amp;","&amp;D67&amp;")"</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (67, 1,2)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1877,11 +2151,15 @@
         <v>2</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (68,5,1,0)</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 1,)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1895,11 +2173,15 @@
         <v>3</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (69,5,1,0)</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (69, 1,)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1922,11 +2204,15 @@
         <v>1</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (70,5,1,0)</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 1,1)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1946,11 +2232,15 @@
         <v>2</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (71,5,1,0)</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 1,)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1973,11 +2263,15 @@
         <v>1</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (72,5,1,0)</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 1,1)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1991,11 +2285,15 @@
         <v>4</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (73,5,1,1)</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (73, 1,)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2018,11 +2316,15 @@
         <v>2</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (74,1,1,0)</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 1,)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2036,11 +2338,15 @@
         <v>3</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (75,1,1,0)</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (75, 1,)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2057,11 +2363,15 @@
         <v>2</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (76,1,1,0)</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (76, 1,2)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2078,11 +2388,15 @@
         <v>2</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" ref="I77:I101" si="2">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
+        <f t="shared" ref="I77:I101" si="4">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (77,1,1,0)</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 1,)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2102,11 +2416,15 @@
         <v>2</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (78,1,1,0)</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 1,)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2129,11 +2447,15 @@
         <v>1</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (79,1,1,0)</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 1,)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2147,11 +2469,15 @@
         <v>4</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (80,1,1,1)</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (80, 1,)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2171,11 +2497,15 @@
         <v>2</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (81,3,1,0)</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 1,1)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2192,11 +2522,15 @@
         <v>2</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (82,3,1,0)</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (82, 1,)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2210,11 +2544,15 @@
         <v>3</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (83,3,1,0)</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (83, 1,)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2231,11 +2569,15 @@
         <v>2</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (84,3,1,0)</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (84, 1,1)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2258,11 +2600,15 @@
         <v>1</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (85,3,1,0)</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 1,1)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2285,11 +2631,15 @@
         <v>1</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (86,3,1,0)</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 1,1)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2303,11 +2653,15 @@
         <v>4</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (87,3,1,1)</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (87, 1,)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2330,11 +2684,15 @@
         <v>1</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (88,4,1,0)</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 1,1)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2351,11 +2709,15 @@
         <v>1</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (89,4,1,0)</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (89, 1,)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2369,11 +2731,15 @@
         <v>3</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (90,4,1,0)</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (90, 1,)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2393,11 +2759,15 @@
         <v>1</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (91,4,1,0)</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 1,2)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2414,11 +2784,15 @@
         <v>2</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (92,4,1,0)</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 1,)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2438,11 +2812,15 @@
         <v>1</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (93,4,1,0)</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 1,1)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2456,11 +2834,15 @@
         <v>4</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (94,4,1,1)</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (94, 1,4)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2480,11 +2862,15 @@
         <v>1</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (95,2,1,0)</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 1,)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2504,11 +2890,15 @@
         <v>1</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (96,2,1,0)</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 1,2)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2531,11 +2921,15 @@
         <v>1</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (97,2,1,0)</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 1,1)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2552,11 +2946,15 @@
         <v>2</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (98,2,1,0)</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (98, 1,2)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2573,11 +2971,15 @@
         <v>2</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (99,2,1,0)</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (99, 1,)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2600,11 +3002,15 @@
         <v>1</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (100,2,1,0)</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 1,1)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2618,8 +3024,12 @@
         <v>4</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (101,2,1,1)</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (101, 1,)</v>
       </c>
     </row>
   </sheetData>

--- a/Splendor_Cartes - sans requetes.xlsx
+++ b/Splendor_Cartes - sans requetes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Niveau (1 à 3, 4==noble)</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Coût Diamant (5)</t>
-  </si>
-  <si>
-    <t>insertLIGNE(A3)</t>
   </si>
 </sst>
 </file>
@@ -384,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -402,14 +399,14 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="10" width="72.85546875" customWidth="1"/>
-    <col min="11" max="11" width="61.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125"/>
-    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" customWidth="1"/>
+    <col min="11" max="11" width="43.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="52.28515625" customWidth="1"/>
     <col min="14" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -453,15 +450,23 @@
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (2, 0,4,3)</v>
       </c>
       <c r="J2" t="str">
-        <f>"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D2)-3&amp;","&amp;D2&amp;")"</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 1,)</v>
+        <f>IF(NOT(ISBLANK(D2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D2)-3&amp;","&amp;D2&amp;")","")</f>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <f>"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;IF(ISBLANK(C2),"0",C2)&amp;","&amp;D3&amp;")"</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 3,4)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <f>IF(NOT(ISBLANK(E2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E2)-3&amp;","&amp;E2&amp;")","")</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 2,4)</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(NOT(ISBLANK(F2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F2)-3&amp;","&amp;F2&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(NOT(ISBLANK(G2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(G2)-3&amp;","&amp;G2&amp;")","")</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 4,4)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -479,14 +484,23 @@
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (3, 0,4,3)</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D3)-3&amp;","&amp;D3&amp;")"</f>
+        <f t="shared" ref="J3:J66" si="0">IF(NOT(ISBLANK(D3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D3)-3&amp;","&amp;D3&amp;")","")</f>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (3, 1,4)</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="1">IF(NOT(ISBLANK(E3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E3)-3&amp;","&amp;E3&amp;")","")</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (3, 2,4)</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:M66" si="2">IF(NOT(ISBLANK(F3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F3)-3&amp;","&amp;F3&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -503,15 +517,27 @@
         <v>3</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I11" si="1">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
+        <f t="shared" ref="I4:I11" si="3">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (4, 0,4,3)</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 1,)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 3,3)</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 4,3)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -525,15 +551,27 @@
         <v>4</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (5, 0,4,3)</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (5, 1,)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (5, 3,4)</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -547,15 +585,27 @@
         <v>4</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (6, 0,4,3)</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (6, 1,4)</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (6, 3,4)</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -572,15 +622,27 @@
         <v>3</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (7, 0,4,3)</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (7, 1,3)</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (7, 3,3)</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -597,15 +659,27 @@
         <v>3</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (8, 0,4,3)</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 1,)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 2,3)</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 4,3)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -622,15 +696,27 @@
         <v>3</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (9, 0,4,3)</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 1,3)</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 2,3)</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 4,3)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -644,15 +730,27 @@
         <v>4</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (10, 0,4,3)</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (10, 1,)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (10, 4,4)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -669,15 +767,27 @@
         <v>3</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (11, 0,4,3)</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (11, 1,3)</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (11, 2,3)</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (11, 3,3)</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -699,10 +809,22 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (12, 1,)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (12, 4,3)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -719,15 +841,27 @@
         <v>3</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I76" si="2">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
+        <f t="shared" ref="I13:I76" si="4">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (13,3,3,5)</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (13, 1,7)</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (13, 3,3)</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -750,15 +884,27 @@
         <v>5</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (14,2,3,3)</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 1,3)</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 3,3)</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 4,3)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -781,15 +927,27 @@
         <v>3</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (15,5,3,3)</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 1,5)</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 2,3)</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 3,3)</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 4,3)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -809,15 +967,27 @@
         <v>3</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (16,1,3,4)</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 1,3)</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 2,6)</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 4,3)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -837,15 +1007,27 @@
         <v>3</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (17,2,3,4)</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 1,)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 2,3)</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 4,6)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -859,15 +1041,27 @@
         <v>7</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (18,5,3,4)</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (18, 1,)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (18, 3,7)</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -884,15 +1078,27 @@
         <v>3</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (19,5,3,5)</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (19, 1,)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (19, 3,7)</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -906,15 +1112,27 @@
         <v>7</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (20,1,3,4)</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (20, 1,)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (20, 2,7)</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -934,15 +1152,27 @@
         <v>6</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (21,4,3,4)</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 1,)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 3,3)</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 4,3)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -959,15 +1189,27 @@
         <v>7</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (22,2,3,5)</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (22, 1,)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (22, 2,3)</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (22, 4,7)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -981,15 +1223,27 @@
         <v>7</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (23,3,3,4)</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (23, 1,7)</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1012,15 +1266,27 @@
         <v>3</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (24,1,3,3)</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 1,)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 2,3)</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 3,3)</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 4,5)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1043,15 +1309,27 @@
         <v>3</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (25,4,3,3)</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 1,3)</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 2,3)</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 3,5)</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1065,15 +1343,27 @@
         <v>7</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (26,2,3,4)</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (26, 1,)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (26, 4,7)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1093,15 +1383,27 @@
         <v>3</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (27,3,3,4)</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (27, 1,6)</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (27, 2,3)</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (27, 3,3)</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1115,15 +1417,27 @@
         <v>7</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (28,4,3,4)</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (28, 1,)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1140,15 +1454,27 @@
         <v>7</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (29,1,3,5)</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (29, 1,3)</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (29, 2,7)</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1168,15 +1494,27 @@
         <v>3</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (30,5,3,4)</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (30, 1,3)</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (30, 3,6)</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1199,15 +1537,27 @@
         <v>3</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (31,3,3,3)</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 1,3)</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 2,5)</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 4,3)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1221,15 +1571,27 @@
         <v>5</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (32,5,2,2)</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (32, 1,5)</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1249,15 +1611,27 @@
         <v>3</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (33,1,2,1)</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 1,2)</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 3,3)</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 4,3)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1277,15 +1651,27 @@
         <v>2</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (34,5,2,1)</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (34, 1,2)</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (34, 2,3)</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (34, 3,2)</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1305,15 +1691,27 @@
         <v>2</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (35,5,2,2)</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (35, 1,4)</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (35, 2,1)</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (35, 3,2)</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1333,15 +1731,27 @@
         <v>2</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (36,5,2,1)</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 1,3)</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 4,3)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1358,15 +1768,27 @@
         <v>5</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (37,2,2,2)</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (37, 1,)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (37, 2,3)</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (37, 4,5)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1386,15 +1808,27 @@
         <v>2</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (38,4,2,2)</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (38, 1,1)</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (38, 3,4)</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1414,15 +1848,27 @@
         <v>2</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (39,4,2,1)</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 1,3)</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 2,2)</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 4,2)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1442,15 +1888,27 @@
         <v>4</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (40,2,2,2)</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 1,)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 3,1)</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 4,2)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1464,15 +1922,27 @@
         <v>5</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (41,2,2,2)</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (41, 1,)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (41, 2,5)</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1489,15 +1959,27 @@
         <v>5</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (42,3,2,2)</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (42, 1,3)</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (42, 2,5)</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1514,15 +1996,27 @@
         <v>3</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (43,1,2,2)</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (43, 1,)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (43, 3,5)</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1536,15 +2030,27 @@
         <v>6</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (44,5,2,3)</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (44, 1,)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1558,15 +2064,27 @@
         <v>6</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (45,4,2,3)</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (45, 1,)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (45, 4,6)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1586,15 +2104,27 @@
         <v>2</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (46,2,2,1)</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 1,)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 3,2)</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 4,3)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1614,15 +2144,27 @@
         <v>3</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (47,3,2,1)</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 1,)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 2,3)</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 3,2)</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1636,15 +2178,27 @@
         <v>6</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (48,1,2,3)</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (48, 1,6)</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1664,15 +2218,27 @@
         <v>2</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (49,4,2,1)</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 1,)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 2,3)</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 3,3)</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 4,2)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1686,15 +2252,27 @@
         <v>5</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (50,3,2,2)</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (50, 1,)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1714,15 +2292,27 @@
         <v>3</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (51,2,2,1)</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (51, 1,3)</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (51, 2,2)</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1736,15 +2326,27 @@
         <v>5</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (52,4,2,2)</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (52, 1,)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (52, 4,5)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1764,15 +2366,27 @@
         <v>2</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (53,1,2,1)</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (53, 1,2)</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (53, 3,3)</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1786,15 +2400,27 @@
         <v>5</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (54,1,2,2)</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (54, 1,)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (54, 3,5)</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1814,15 +2440,27 @@
         <v>3</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (55,3,2,1)</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 1,)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 2,2)</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 4,2)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1839,15 +2477,27 @@
         <v>5</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (56,4,2,2)</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (56, 1,)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (56, 4,3)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1867,15 +2517,27 @@
         <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (57,3,2,2)</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 1,2)</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 2,4)</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 4,1)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1895,15 +2557,27 @@
         <v>1</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (58,1,2,2)</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 1,)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 2,2)</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 4,4)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1920,15 +2594,27 @@
         <v>3</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (59,5,2,2)</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (59, 1,5)</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (59, 3,3)</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1942,15 +2628,27 @@
         <v>6</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (60,2,2,3)</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (60, 1,)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (60, 2,6)</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1964,15 +2662,27 @@
         <v>6</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (61,3,2,3)</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (61, 1,)</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (61, 3,6)</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1999,8 +2709,20 @@
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (62, 1,3)</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (62, 2,1)</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (62, 3,1)</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2014,15 +2736,27 @@
         <v>3</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (63,2,1,0)</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (63, 1,3)</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2042,15 +2776,27 @@
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (64,1,1,0)</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (64, 1,1)</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (64, 3,3)</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2070,15 +2816,27 @@
         <v>3</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (65,5,1,0)</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 1,)</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 3,1)</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 4,1)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2101,15 +2859,27 @@
         <v>1</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (66,4,1,0)</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 1,2)</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 2,1)</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 3,1)</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2126,15 +2896,27 @@
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (67,5,1,0)</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J101" si="3">"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D67)-3&amp;","&amp;D67&amp;")"</f>
+        <f t="shared" ref="J67:J101" si="5">IF(NOT(ISBLANK(D67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D67)-3&amp;","&amp;D67&amp;")","")</f>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (67, 1,2)</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K101" si="6">IF(NOT(ISBLANK(E67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E67)-3&amp;","&amp;E67&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:M101" si="7">IF(NOT(ISBLANK(F67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F67)-3&amp;","&amp;F67&amp;")","")</f>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (67, 3,1)</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2151,15 +2933,27 @@
         <v>2</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (68,5,1,0)</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 1,)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 3,2)</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 4,2)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2173,15 +2967,27 @@
         <v>3</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (69,5,1,0)</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (69, 1,)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (69, 4,3)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2204,15 +3010,27 @@
         <v>1</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (70,5,1,0)</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 1,1)</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 2,2)</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 3,1)</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 4,1)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2232,15 +3050,27 @@
         <v>2</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (71,5,1,0)</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 1,)</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 2,2)</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 3,1)</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 4,2)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2263,15 +3093,27 @@
         <v>1</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (72,5,1,0)</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 1,1)</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 2,1)</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 3,1)</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 4,1)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2285,15 +3127,27 @@
         <v>4</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (73,5,1,1)</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (73, 1,)</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (73, 2,4)</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2316,15 +3170,27 @@
         <v>2</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (74,1,1,0)</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 1,)</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 2,1)</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 3,1)</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 4,1)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2338,15 +3204,27 @@
         <v>3</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (75,1,1,0)</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (75, 1,)</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2363,15 +3241,27 @@
         <v>2</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (76,1,1,0)</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (76, 1,2)</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2388,15 +3278,27 @@
         <v>2</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" ref="I77:I101" si="4">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
+        <f t="shared" ref="I77:I101" si="8">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (77,1,1,0)</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 1,)</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 2,1)</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 4,2)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2416,15 +3318,27 @@
         <v>2</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (78,1,1,0)</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 1,)</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 2,1)</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 3,2)</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2447,15 +3361,27 @@
         <v>1</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (79,1,1,0)</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 1,)</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 2,1)</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 3,1)</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 4,1)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2469,15 +3395,27 @@
         <v>4</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (80,1,1,1)</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (80, 1,)</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2497,15 +3435,27 @@
         <v>2</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (81,3,1,0)</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 1,1)</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 4,2)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2522,15 +3472,27 @@
         <v>2</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (82,3,1,0)</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (82, 1,)</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (82, 2,2)</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2544,15 +3506,27 @@
         <v>3</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (83,3,1,0)</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (83, 1,)</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (83, 2,3)</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2569,15 +3543,27 @@
         <v>2</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (84,3,1,0)</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (84, 1,1)</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (84, 2,2)</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2600,15 +3586,27 @@
         <v>1</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (85,3,1,0)</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 1,1)</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 2,1)</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 4,1)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2631,15 +3629,27 @@
         <v>1</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (86,3,1,0)</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 1,1)</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 2,1)</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 4,2)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2653,15 +3663,27 @@
         <v>4</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (87,3,1,1)</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (87, 1,)</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (87, 4,4)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2684,15 +3706,27 @@
         <v>1</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (88,4,1,0)</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 1,1)</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 2,1)</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 3,1)</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2709,15 +3743,27 @@
         <v>1</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (89,4,1,0)</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (89, 1,)</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (89, 3,2)</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2731,15 +3777,27 @@
         <v>3</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (90,4,1,0)</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (90, 1,)</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (90, 3,3)</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2759,15 +3817,27 @@
         <v>1</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (91,4,1,0)</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 1,2)</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 2,2)</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2784,15 +3854,27 @@
         <v>2</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (92,4,1,0)</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 1,)</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 2,2)</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 3,2)</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2812,15 +3894,27 @@
         <v>1</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (93,4,1,0)</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 1,1)</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 2,3)</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 4,1)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2834,15 +3928,27 @@
         <v>4</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (94,4,1,1)</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (94, 1,4)</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2862,15 +3968,27 @@
         <v>1</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (95,2,1,0)</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 1,)</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 2,1)</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 4,3)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2890,15 +4008,27 @@
         <v>1</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (96,2,1,0)</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 1,2)</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 3,2)</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 4,1)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2921,15 +4051,27 @@
         <v>1</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (97,2,1,0)</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 1,1)</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 3,1)</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 4,1)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2946,15 +4088,27 @@
         <v>2</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (98,2,1,0)</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (98, 1,2)</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (98, 4,2)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2971,15 +4125,27 @@
         <v>2</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (99,2,1,0)</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (99, 1,)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (99, 4,1)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3002,15 +4168,27 @@
         <v>1</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (100,2,1,0)</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 1,1)</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 3,2)</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 4,1)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3024,12 +4202,24 @@
         <v>4</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (101,2,1,1)</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (101, 1,)</v>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (101, 4,4)</v>
       </c>
     </row>
   </sheetData>

--- a/Splendor_Cartes - sans requetes.xlsx
+++ b/Splendor_Cartes - sans requetes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:M101"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -396,17 +396,18 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="52.28515625" customWidth="1"/>
-    <col min="14" max="1025" width="11.5703125"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -465,8 +466,12 @@
         <f>IF(NOT(ISBLANK(G2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(G2)-3&amp;","&amp;G2&amp;")","")</f>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 4,4)</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="str">
+        <f>IF(NOT(ISBLANK(H2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H2)-3&amp;","&amp;H2&amp;")","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -499,8 +504,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="3">IF(NOT(ISBLANK(H3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H3)-3&amp;","&amp;H3&amp;")","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -517,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I11" si="3">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
+        <f t="shared" ref="I4:I11" si="4">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (4, 0,4,3)</v>
       </c>
       <c r="J4" t="str">
@@ -536,8 +545,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 4,3)</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 5,3)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -551,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (5, 0,4,3)</v>
       </c>
       <c r="J5" t="str">
@@ -570,8 +583,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (5, 5,4)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -585,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (6, 0,4,3)</v>
       </c>
       <c r="J6" t="str">
@@ -604,8 +621,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -622,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (7, 0,4,3)</v>
       </c>
       <c r="J7" t="str">
@@ -641,8 +662,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (7, 5,3)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -659,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (8, 0,4,3)</v>
       </c>
       <c r="J8" t="str">
@@ -678,8 +703,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 4,3)</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 5,3)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -696,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (9, 0,4,3)</v>
       </c>
       <c r="J9" t="str">
@@ -715,8 +744,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 4,3)</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -730,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (10, 0,4,3)</v>
       </c>
       <c r="J10" t="str">
@@ -749,8 +782,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (10, 4,4)</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (10, 5,4)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -767,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (11, 0,4,3)</v>
       </c>
       <c r="J11" t="str">
@@ -786,8 +823,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -823,8 +864,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (12, 4,3)</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (12, 5,7)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -841,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I76" si="4">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
+        <f t="shared" ref="I13:I76" si="5">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (13,3,3,5)</v>
       </c>
       <c r="J13" t="str">
@@ -860,8 +905,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -884,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (14,2,3,3)</v>
       </c>
       <c r="J14" t="str">
@@ -903,8 +952,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 4,3)</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 5,5)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -927,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (15,5,3,3)</v>
       </c>
       <c r="J15" t="str">
@@ -946,8 +999,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 4,3)</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -967,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (16,1,3,4)</v>
       </c>
       <c r="J16" t="str">
@@ -986,8 +1043,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 4,3)</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1007,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="4"/>
+        <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B17 &amp; "," &amp; A17 &amp; "," &amp; C17 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (17,2,3,4)</v>
       </c>
       <c r="J17" t="str">
@@ -1026,8 +1087,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 4,6)</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 5,3)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1041,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (18,5,3,4)</v>
       </c>
       <c r="J18" t="str">
@@ -1060,8 +1125,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1078,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (19,5,3,5)</v>
       </c>
       <c r="J19" t="str">
@@ -1097,8 +1166,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (19, 5,3)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1112,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (20,1,3,4)</v>
       </c>
       <c r="J20" t="str">
@@ -1131,8 +1204,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1152,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (21,4,3,4)</v>
       </c>
       <c r="J21" t="str">
@@ -1171,8 +1248,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 4,3)</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 5,6)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1189,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (22,2,3,5)</v>
       </c>
       <c r="J22" t="str">
@@ -1208,8 +1289,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (22, 4,7)</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1223,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (23,3,3,4)</v>
       </c>
       <c r="J23" t="str">
@@ -1242,8 +1327,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1266,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (24,1,3,3)</v>
       </c>
       <c r="J24" t="str">
@@ -1285,8 +1374,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 4,5)</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 5,3)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1309,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (25,4,3,3)</v>
       </c>
       <c r="J25" t="str">
@@ -1328,8 +1421,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 5,3)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1343,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (26,2,3,4)</v>
       </c>
       <c r="J26" t="str">
@@ -1362,8 +1459,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (26, 4,7)</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1383,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (27,3,3,4)</v>
       </c>
       <c r="J27" t="str">
@@ -1402,8 +1503,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1417,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (28,4,3,4)</v>
       </c>
       <c r="J28" t="str">
@@ -1436,8 +1541,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (28, 5,7)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1454,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (29,1,3,5)</v>
       </c>
       <c r="J29" t="str">
@@ -1473,8 +1582,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1494,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (30,5,3,4)</v>
       </c>
       <c r="J30" t="str">
@@ -1513,8 +1626,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (30, 5,3)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1537,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (31,3,3,3)</v>
       </c>
       <c r="J31" t="str">
@@ -1556,8 +1673,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 4,3)</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 5,3)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1571,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (32,5,2,2)</v>
       </c>
       <c r="J32" t="str">
@@ -1590,8 +1711,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1611,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (33,1,2,1)</v>
       </c>
       <c r="J33" t="str">
@@ -1630,8 +1755,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 4,3)</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1651,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (34,5,2,1)</v>
       </c>
       <c r="J34" t="str">
@@ -1670,8 +1799,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1691,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (35,5,2,2)</v>
       </c>
       <c r="J35" t="str">
@@ -1710,8 +1843,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1731,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (36,5,2,1)</v>
       </c>
       <c r="J36" t="str">
@@ -1750,8 +1887,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 4,3)</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 5,2)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1768,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (37,2,2,2)</v>
       </c>
       <c r="J37" t="str">
@@ -1787,8 +1928,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (37, 4,5)</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1808,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (38,4,2,2)</v>
       </c>
       <c r="J38" t="str">
@@ -1827,8 +1972,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (38, 5,2)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1848,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (39,4,2,1)</v>
       </c>
       <c r="J39" t="str">
@@ -1867,8 +2016,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 4,2)</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1888,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (40,2,2,2)</v>
       </c>
       <c r="J40" t="str">
@@ -1907,8 +2060,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 4,2)</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 5,4)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1922,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (41,2,2,2)</v>
       </c>
       <c r="J41" t="str">
@@ -1941,8 +2098,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1959,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (42,3,2,2)</v>
       </c>
       <c r="J42" t="str">
@@ -1978,8 +2139,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1996,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (43,1,2,2)</v>
       </c>
       <c r="J43" t="str">
@@ -2015,8 +2180,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (43, 5,3)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2030,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (44,5,2,3)</v>
       </c>
       <c r="J44" t="str">
@@ -2049,8 +2218,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (44, 5,6)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2064,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (45,4,2,3)</v>
       </c>
       <c r="J45" t="str">
@@ -2083,8 +2256,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (45, 4,6)</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2104,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (46,2,2,1)</v>
       </c>
       <c r="J46" t="str">
@@ -2123,8 +2300,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 4,3)</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 5,2)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2144,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (47,3,2,1)</v>
       </c>
       <c r="J47" t="str">
@@ -2163,8 +2344,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 5,3)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2178,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (48,1,2,3)</v>
       </c>
       <c r="J48" t="str">
@@ -2197,8 +2382,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2218,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (49,4,2,1)</v>
       </c>
       <c r="J49" t="str">
@@ -2237,8 +2426,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 4,2)</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2252,7 +2445,7 @@
         <v>5</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (50,3,2,2)</v>
       </c>
       <c r="J50" t="str">
@@ -2271,8 +2464,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (50, 5,5)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2292,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (51,2,2,1)</v>
       </c>
       <c r="J51" t="str">
@@ -2311,8 +2508,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (51, 5,3)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2326,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (52,4,2,2)</v>
       </c>
       <c r="J52" t="str">
@@ -2345,8 +2546,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (52, 4,5)</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2366,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (53,1,2,1)</v>
       </c>
       <c r="J53" t="str">
@@ -2385,8 +2590,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (53, 5,2)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2400,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (54,1,2,2)</v>
       </c>
       <c r="J54" t="str">
@@ -2419,8 +2628,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2440,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (55,3,2,1)</v>
       </c>
       <c r="J55" t="str">
@@ -2459,8 +2672,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 4,2)</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 5,3)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2477,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (56,4,2,2)</v>
       </c>
       <c r="J56" t="str">
@@ -2496,8 +2713,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (56, 4,3)</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (56, 5,5)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2517,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (57,3,2,2)</v>
       </c>
       <c r="J57" t="str">
@@ -2536,8 +2757,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 4,1)</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2557,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (58,1,2,2)</v>
       </c>
       <c r="J58" t="str">
@@ -2576,8 +2801,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 4,4)</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 5,1)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2594,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (59,5,2,2)</v>
       </c>
       <c r="J59" t="str">
@@ -2613,8 +2842,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2628,7 +2861,7 @@
         <v>6</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (60,2,2,3)</v>
       </c>
       <c r="J60" t="str">
@@ -2647,8 +2880,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2662,7 +2899,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (61,3,2,3)</v>
       </c>
       <c r="J61" t="str">
@@ -2681,8 +2918,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2721,8 +2962,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" t="str">
+        <f>IF(NOT(ISBLANK(H62)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H62)-3&amp;","&amp;H62&amp;")","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2736,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (63,2,1,0)</v>
       </c>
       <c r="J63" t="str">
@@ -2755,8 +3000,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2776,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (64,1,1,0)</v>
       </c>
       <c r="J64" t="str">
@@ -2795,8 +3044,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (64, 5,1)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2816,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (65,5,1,0)</v>
       </c>
       <c r="J65" t="str">
@@ -2835,8 +3088,12 @@
         <f t="shared" si="2"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 4,1)</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 5,3)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2859,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (66,4,1,0)</v>
       </c>
       <c r="J66" t="str">
@@ -2878,8 +3135,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 5,1)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2896,27 +3157,31 @@
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (67,5,1,0)</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J101" si="5">IF(NOT(ISBLANK(D67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D67)-3&amp;","&amp;D67&amp;")","")</f>
+        <f t="shared" ref="J67:J101" si="6">IF(NOT(ISBLANK(D67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D67)-3&amp;","&amp;D67&amp;")","")</f>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (67, 1,2)</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K101" si="6">IF(NOT(ISBLANK(E67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E67)-3&amp;","&amp;E67&amp;")","")</f>
+        <f t="shared" ref="K67:K101" si="7">IF(NOT(ISBLANK(E67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E67)-3&amp;","&amp;E67&amp;")","")</f>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:M101" si="7">IF(NOT(ISBLANK(F67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F67)-3&amp;","&amp;F67&amp;")","")</f>
+        <f t="shared" ref="L67:M101" si="8">IF(NOT(ISBLANK(F67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F67)-3&amp;","&amp;F67&amp;")","")</f>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (67, 3,1)</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N101" si="9">IF(NOT(ISBLANK(H67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H67)-3&amp;","&amp;H67&amp;")","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2933,27 +3198,31 @@
         <v>2</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (68,5,1,0)</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 3,2)</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 4,2)</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2967,27 +3236,31 @@
         <v>3</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (69,5,1,0)</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (69, 4,3)</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3010,27 +3283,31 @@
         <v>1</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (70,5,1,0)</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 1,1)</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 2,2)</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 3,1)</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 4,1)</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3050,27 +3327,31 @@
         <v>2</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (71,5,1,0)</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 2,2)</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 3,1)</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 4,2)</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3093,27 +3374,31 @@
         <v>1</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (72,5,1,0)</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 1,1)</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 2,1)</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 3,1)</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 4,1)</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3127,27 +3412,31 @@
         <v>4</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (73,5,1,1)</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (73, 2,4)</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3170,27 +3459,31 @@
         <v>2</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (74,1,1,0)</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 2,1)</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 3,1)</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 4,1)</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 5,2)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3204,27 +3497,31 @@
         <v>3</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (75,1,1,0)</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (75, 5,3)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3241,27 +3538,31 @@
         <v>2</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (76,1,1,0)</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (76, 1,2)</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (76, 5,2)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3278,27 +3579,31 @@
         <v>2</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" ref="I77:I101" si="8">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
+        <f t="shared" ref="I77:I101" si="10">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (77,1,1,0)</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 2,1)</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 4,2)</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3318,27 +3623,31 @@
         <v>2</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (78,1,1,0)</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 2,1)</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 3,2)</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 5,2)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3361,61 +3670,69 @@
         <v>1</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (79,1,1,0)</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K79" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 2,1)</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 3,1)</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 4,1)</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 5,1)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (80,1,1,1)</v>
+      </c>
+      <c r="J80" t="str">
         <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 2,1)</v>
-      </c>
-      <c r="L79" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
         <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 3,1)</v>
-      </c>
-      <c r="M79" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 4,1)</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
-      <c r="I80" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (80,1,1,1)</v>
-      </c>
-      <c r="J80" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K80" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (80, 5,4)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3435,27 +3752,31 @@
         <v>2</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (81,3,1,0)</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 1,1)</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 4,2)</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 5,2)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3472,27 +3793,31 @@
         <v>2</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (82,3,1,0)</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (82, 2,2)</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (82, 5,2)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3506,27 +3831,31 @@
         <v>3</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (83,3,1,0)</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (83, 2,3)</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3543,27 +3872,31 @@
         <v>2</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (84,3,1,0)</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (84, 1,1)</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (84, 2,2)</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3586,27 +3919,31 @@
         <v>1</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (85,3,1,0)</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 1,1)</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 2,1)</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 4,1)</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 5,1)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3629,61 +3966,69 @@
         <v>1</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (86,3,1,0)</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 1,1)</v>
       </c>
       <c r="K86" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 2,1)</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 4,2)</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 5,1)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (87,3,1,1)</v>
+      </c>
+      <c r="J87" t="str">
         <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 2,1)</v>
-      </c>
-      <c r="L86" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M86" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 4,2)</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>4</v>
-      </c>
-      <c r="I87" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (87,3,1,1)</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K87" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="L87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (87, 4,4)</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3706,27 +4051,31 @@
         <v>1</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (88,4,1,0)</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 1,1)</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 2,1)</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 3,1)</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 5,1)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3743,27 +4092,31 @@
         <v>1</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (89,4,1,0)</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (89, 3,2)</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (89, 5,1)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3777,27 +4130,31 @@
         <v>3</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (90,4,1,0)</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (90, 3,3)</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3817,27 +4174,31 @@
         <v>1</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (91,4,1,0)</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 1,2)</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 2,2)</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M91" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 5,1)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3854,27 +4215,31 @@
         <v>2</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (92,4,1,0)</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 2,2)</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 3,2)</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3894,61 +4259,69 @@
         <v>1</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (93,4,1,0)</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 1,1)</v>
       </c>
       <c r="K93" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 2,3)</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 4,1)</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (94,4,1,1)</v>
+      </c>
+      <c r="J94" t="str">
         <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 2,3)</v>
-      </c>
-      <c r="L93" t="str">
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (94, 1,4)</v>
+      </c>
+      <c r="K94" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M93" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 4,1)</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="I94" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (94,4,1,1)</v>
-      </c>
-      <c r="J94" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (94, 1,4)</v>
-      </c>
-      <c r="K94" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="L94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3968,27 +4341,31 @@
         <v>1</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (95,2,1,0)</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 2,1)</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 4,3)</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 5,1)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4008,27 +4385,31 @@
         <v>1</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (96,2,1,0)</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 1,2)</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 3,2)</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 4,1)</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4051,27 +4432,31 @@
         <v>1</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (97,2,1,0)</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 1,1)</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 3,1)</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 4,1)</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 5,1)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4088,27 +4473,31 @@
         <v>2</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (98,2,1,0)</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (98, 1,2)</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (98, 4,2)</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4125,27 +4514,31 @@
         <v>2</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (99,2,1,0)</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (99, 4,1)</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (99, 5,2)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4168,58 +4561,66 @@
         <v>1</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (100,2,1,0)</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 1,1)</v>
       </c>
       <c r="K100" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 3,2)</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 4,1)</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 5,1)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (101,2,1,1)</v>
+      </c>
+      <c r="J101" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L100" t="str">
+      <c r="K101" t="str">
         <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 3,2)</v>
-      </c>
-      <c r="M100" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 4,1)</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>4</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (101,2,1,1)</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K101" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>insert into cost(fkCard, fkRessource, nbRessource) values (101, 4,4)</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Splendor_Cartes - sans requetes.xlsx
+++ b/Splendor_Cartes - sans requetes.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet\SplendorGameJoaoCyril\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013A584-17D3-4609-A485-F5A73F5899C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -380,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
@@ -399,8 +405,8 @@
     <col min="7" max="7" width="6.42578125" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
@@ -451,23 +457,23 @@
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (2, 0,4,3)</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(NOT(ISBLANK(D2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D2)-3&amp;","&amp;D2&amp;")","")</f>
+        <f t="shared" ref="J2:J65" si="0">IF(NOT(ISBLANK(D2)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D2)-4&amp;","&amp;D2&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(NOT(ISBLANK(E2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E2)-3&amp;","&amp;E2&amp;")","")</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 2,4)</v>
+        <f t="shared" ref="K2:K65" si="1">IF(NOT(ISBLANK(E2)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E2)-4&amp;","&amp;E2&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (2, 1,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L2" t="str">
-        <f>IF(NOT(ISBLANK(F2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F2)-3&amp;","&amp;F2&amp;")","")</f>
+        <f t="shared" ref="L2:L65" si="2">IF(NOT(ISBLANK(F2)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F2)-4&amp;","&amp;F2&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f>IF(NOT(ISBLANK(G2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(G2)-3&amp;","&amp;G2&amp;")","")</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (2, 4,4)</v>
+        <f t="shared" ref="M2:M65" si="3">IF(NOT(ISBLANK(G2)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(G2)-4&amp;","&amp;G2&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (2, 3,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(NOT(ISBLANK(H2)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H2)-3&amp;","&amp;H2&amp;")","")</f>
+        <f t="shared" ref="N2:N65" si="4">IF(NOT(ISBLANK(H2)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H2)-4&amp;","&amp;H2&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
         <v/>
       </c>
     </row>
@@ -489,23 +495,23 @@
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (3, 0,4,3)</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">IF(NOT(ISBLANK(D3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D3)-3&amp;","&amp;D3&amp;")","")</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (3, 1,4)</v>
+        <f t="shared" si="0"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (3, 0,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="1">IF(NOT(ISBLANK(E3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E3)-3&amp;","&amp;E3&amp;")","")</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (3, 2,4)</v>
+        <f t="shared" si="1"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (3, 1,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:M66" si="2">IF(NOT(ISBLANK(F3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F3)-3&amp;","&amp;F3&amp;")","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="3">IF(NOT(ISBLANK(H3)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H3)-3&amp;","&amp;H3&amp;")","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -526,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I11" si="4">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
+        <f t="shared" ref="I4:I11" si="5">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (4, 0,4,3)</v>
       </c>
       <c r="J4" t="str">
@@ -539,15 +545,15 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (4, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (4, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (4, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (4, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -564,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (5, 0,4,3)</v>
       </c>
       <c r="J5" t="str">
@@ -577,15 +583,15 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (5, 3,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (5, 2,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (5, 5,4)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (5, 4,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -602,12 +608,12 @@
         <v>4</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (6, 0,4,3)</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (6, 1,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (6, 0,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -615,14 +621,14 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (6, 3,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (6, 2,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -643,12 +649,12 @@
         <v>3</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (7, 0,4,3)</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (7, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (7, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -656,15 +662,15 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (7, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (7, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (7, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (7, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -684,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (8, 0,4,3)</v>
       </c>
       <c r="J8" t="str">
@@ -693,19 +699,19 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (8, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (8, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (8, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (8, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -725,27 +731,27 @@
         <v>3</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (9, 0,4,3)</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (9, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (9, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (9, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (9, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -763,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (10, 0,4,3)</v>
       </c>
       <c r="J10" t="str">
@@ -779,12 +785,12 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (10, 4,4)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (10, 3,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (10, 5,4)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (10, 4,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -804,27 +810,27 @@
         <v>3</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (11, 0,4,3)</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (11, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (11, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (11, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (11, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (11, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (11, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -861,12 +867,12 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (12, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (12, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (12, 5,7)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (12, 4,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -886,12 +892,12 @@
         <v>3</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I76" si="5">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
+        <f t="shared" ref="I13:I76" si="6">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (13,3,3,5)</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (13, 1,7)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (13, 0,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -899,14 +905,14 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (13, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (13, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -933,12 +939,12 @@
         <v>5</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (14,2,3,3)</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (14, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -946,15 +952,15 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (14, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (14, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (14, 5,5)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (14, 4,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -980,27 +986,27 @@
         <v>3</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (15,5,3,3)</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 1,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (15, 0,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (15, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (15, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (15, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (15, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1024,27 +1030,27 @@
         <v>3</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (16,1,3,4)</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (16, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 2,6)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (16, 1,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (16, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (16, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1077,19 +1083,19 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (17, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 4,6)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (17, 3,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (17, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (17, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1106,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (18,5,3,4)</v>
       </c>
       <c r="J18" t="str">
@@ -1119,14 +1125,14 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (18, 3,7)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (18, 2,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1147,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (19,5,3,5)</v>
       </c>
       <c r="J19" t="str">
@@ -1160,15 +1166,15 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (19, 3,7)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (19, 2,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (19, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (19, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1185,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (20,1,3,4)</v>
       </c>
       <c r="J20" t="str">
@@ -1194,18 +1200,18 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (20, 2,7)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (20, 1,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1229,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (21,4,3,4)</v>
       </c>
       <c r="J21" t="str">
@@ -1242,15 +1248,15 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (21, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (21, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (21, 5,6)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (21, 4,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1270,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (22,2,3,5)</v>
       </c>
       <c r="J22" t="str">
@@ -1279,18 +1285,18 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (22, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (22, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (22, 4,7)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (22, 3,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1308,12 +1314,12 @@
         <v>7</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (23,3,3,4)</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (23, 1,7)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (23, 0,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -1324,11 +1330,11 @@
         <v/>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1355,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (24,1,3,3)</v>
       </c>
       <c r="J24" t="str">
@@ -1364,19 +1370,19 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (24, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (24, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 4,5)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (24, 3,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (24, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (24, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1402,28 +1408,28 @@
         <v>3</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (25,4,3,3)</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (25, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (25, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 3,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (25, 2,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (25, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (25, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1440,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (26,2,3,4)</v>
       </c>
       <c r="J26" t="str">
@@ -1456,11 +1462,11 @@
         <v/>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (26, 4,7)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (26, 3,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1484,27 +1490,27 @@
         <v>3</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (27,3,3,4)</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (27, 1,6)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (27, 0,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (27, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (27, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (27, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (27, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1522,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (28,4,3,4)</v>
       </c>
       <c r="J28" t="str">
@@ -1538,12 +1544,12 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (28, 5,7)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (28, 4,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1563,27 +1569,27 @@
         <v>7</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (29,1,3,5)</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (29, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (29, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (29, 2,7)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (29, 1,7)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1607,12 +1613,12 @@
         <v>3</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (30,5,3,4)</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (30, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (30, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
@@ -1620,15 +1626,15 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (30, 3,6)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (30, 2,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (30, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (30, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1654,28 +1660,28 @@
         <v>3</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (31,3,3,3)</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (31, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 2,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (31, 1,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (31, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (31, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (31, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1692,12 +1698,12 @@
         <v>5</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (32,5,2,2)</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (32, 1,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (32, 0,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -1708,11 +1714,11 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1736,12 +1742,12 @@
         <v>3</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (33,1,2,1)</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 1,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (33, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -1749,14 +1755,14 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (33, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (33, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (33, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1780,27 +1786,27 @@
         <v>2</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (34,5,2,1)</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (34, 1,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (34, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (34, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (34, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (34, 3,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (34, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1824,27 +1830,27 @@
         <v>2</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (35,5,2,2)</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (35, 1,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (35, 0,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (35, 2,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (35, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (35, 3,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (35, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1868,12 +1874,12 @@
         <v>2</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (36,5,2,1)</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (36, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
@@ -1884,12 +1890,12 @@
         <v/>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (36, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (36, 5,2)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (36, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -1909,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (37,2,2,2)</v>
       </c>
       <c r="J37" t="str">
@@ -1918,18 +1924,18 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (37, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (37, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (37, 4,5)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (37, 3,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1953,12 +1959,12 @@
         <v>2</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (38,4,2,2)</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (38, 1,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (38, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="1"/>
@@ -1966,15 +1972,15 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (38, 3,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (38, 2,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (38, 5,2)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (38, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -1997,27 +2003,27 @@
         <v>2</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (39,4,2,1)</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (39, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 2,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (39, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (39, 4,2)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (39, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2041,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (40,2,2,2)</v>
       </c>
       <c r="J40" t="str">
@@ -2054,15 +2060,15 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 3,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (40, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 4,2)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (40, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (40, 5,4)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (40, 4,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2079,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (41,2,2,2)</v>
       </c>
       <c r="J41" t="str">
@@ -2088,18 +2094,18 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (41, 2,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (41, 1,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2120,27 +2126,27 @@
         <v>5</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (42,3,2,2)</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (42, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (42, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (42, 2,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (42, 1,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2161,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (43,1,2,2)</v>
       </c>
       <c r="J43" t="str">
@@ -2174,15 +2180,15 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (43, 3,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (43, 2,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (43, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (43, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2199,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (44,5,2,3)</v>
       </c>
       <c r="J44" t="str">
@@ -2215,12 +2221,12 @@
         <v/>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (44, 5,6)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (44, 4,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2237,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (45,4,2,3)</v>
       </c>
       <c r="J45" t="str">
@@ -2253,11 +2259,11 @@
         <v/>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (45, 4,6)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (45, 3,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2281,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (46,2,2,1)</v>
       </c>
       <c r="J46" t="str">
@@ -2294,15 +2300,15 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 3,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (46, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (46, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (46, 5,2)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (46, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2325,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (47,3,2,1)</v>
       </c>
       <c r="J47" t="str">
@@ -2334,19 +2340,19 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (47, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 3,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (47, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (47, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (47, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2363,12 +2369,12 @@
         <v>6</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (48,1,2,3)</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (48, 1,6)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (48, 0,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="1"/>
@@ -2379,11 +2385,11 @@
         <v/>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2407,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (49,4,2,1)</v>
       </c>
       <c r="J49" t="str">
@@ -2416,18 +2422,18 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 2,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (49, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (49, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (49, 4,2)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (49, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2445,7 +2451,7 @@
         <v>5</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (50,3,2,2)</v>
       </c>
       <c r="J50" t="str">
@@ -2461,12 +2467,12 @@
         <v/>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (50, 5,5)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (50, 4,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2489,28 +2495,28 @@
         <v>3</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (51,2,2,1)</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (51, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (51, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (51, 2,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (51, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (51, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (51, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -2527,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (52,4,2,2)</v>
       </c>
       <c r="J52" t="str">
@@ -2543,11 +2549,11 @@
         <v/>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (52, 4,5)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (52, 3,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2571,12 +2577,12 @@
         <v>2</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (53,1,2,1)</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (53, 1,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (53, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="1"/>
@@ -2584,15 +2590,15 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (53, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (53, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (53, 5,2)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (53, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -2609,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (54,1,2,2)</v>
       </c>
       <c r="J54" t="str">
@@ -2622,14 +2628,14 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (54, 3,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (54, 2,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2653,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (55,3,2,1)</v>
       </c>
       <c r="J55" t="str">
@@ -2662,19 +2668,19 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 2,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (55, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 4,2)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (55, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (55, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (55, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -2694,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (56,4,2,2)</v>
       </c>
       <c r="J56" t="str">
@@ -2710,12 +2716,12 @@
         <v/>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (56, 4,3)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (56, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (56, 5,5)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (56, 4,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -2738,27 +2744,27 @@
         <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (57,3,2,2)</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 1,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (57, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 2,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (57, 1,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (57, 4,1)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (57, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2782,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (58,1,2,2)</v>
       </c>
       <c r="J58" t="str">
@@ -2791,19 +2797,19 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 2,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (58, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 4,4)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (58, 3,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (58, 5,1)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (58, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -2823,12 +2829,12 @@
         <v>3</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (59,5,2,2)</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (59, 1,5)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (59, 0,5)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="1"/>
@@ -2836,14 +2842,14 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (59, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (59, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2861,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (60,2,2,3)</v>
       </c>
       <c r="J60" t="str">
@@ -2870,18 +2876,18 @@
       </c>
       <c r="K60" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (60, 2,6)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (60, 1,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2899,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (61,3,2,3)</v>
       </c>
       <c r="J61" t="str">
@@ -2912,14 +2918,14 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (61, 3,6)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (61, 2,6)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2948,22 +2954,22 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (62, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (62, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (62, 2,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (62, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (62, 3,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (62, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N62" t="str">
-        <f>IF(NOT(ISBLANK(H62)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H62)-3&amp;","&amp;H62&amp;")","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2981,12 +2987,12 @@
         <v>3</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (63,2,1,0)</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (63, 1,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (63, 0,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="1"/>
@@ -2997,11 +3003,11 @@
         <v/>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3025,12 +3031,12 @@
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (64,1,1,0)</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (64, 1,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (64, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="1"/>
@@ -3038,15 +3044,15 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (64, 3,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (64, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (64, 5,1)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (64, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3069,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (65,5,1,0)</v>
       </c>
       <c r="J65" t="str">
@@ -3082,15 +3088,15 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 3,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (65, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 4,1)</v>
+        <f t="shared" si="3"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (65, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (65, 5,3)</v>
+        <f t="shared" si="4"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (65, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3116,28 +3122,28 @@
         <v>1</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (66,4,1,0)</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 1,2)</v>
+        <f t="shared" ref="J66:J101" si="7">IF(NOT(ISBLANK(D66)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D66)-4&amp;","&amp;D66&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (66, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 2,1)</v>
+        <f t="shared" ref="K66:K101" si="8">IF(NOT(ISBLANK(E66)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E66)-4&amp;","&amp;E66&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (66, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 3,1)</v>
+        <f t="shared" ref="L66:L101" si="9">IF(NOT(ISBLANK(F66)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F66)-4&amp;","&amp;F66&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (66, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M66:M101" si="10">IF(NOT(ISBLANK(G66)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(G66)-4&amp;","&amp;G66&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
         <v/>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (66, 5,1)</v>
+        <f t="shared" ref="N66:N101" si="11">IF(NOT(ISBLANK(H66)),"sql = ""insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H66)-4&amp;","&amp;H66&amp;")""; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();","")</f>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (66, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3157,27 +3163,27 @@
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (67,5,1,0)</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J101" si="6">IF(NOT(ISBLANK(D67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(D67)-3&amp;","&amp;D67&amp;")","")</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (67, 1,2)</v>
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (67, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K101" si="7">IF(NOT(ISBLANK(E67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(E67)-3&amp;","&amp;E67&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:M101" si="8">IF(NOT(ISBLANK(F67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(F67)-3&amp;","&amp;F67&amp;")","")</f>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (67, 3,1)</v>
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (67, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N101" si="9">IF(NOT(ISBLANK(H67)),"insert into cost(fkCard, fkRessource, nbRessource) values ("&amp;ROW()&amp;", "&amp;COLUMN(H67)-3&amp;","&amp;H67&amp;")","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3198,27 +3204,27 @@
         <v>2</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (68,5,1,0)</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 3,2)</v>
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (68, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (68, 4,2)</v>
+        <f t="shared" si="10"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (68, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3236,27 +3242,27 @@
         <v>3</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (69,5,1,0)</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (69, 4,3)</v>
+        <f t="shared" si="10"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (69, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3283,27 +3289,27 @@
         <v>1</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (70,5,1,0)</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 1,1)</v>
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (70, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 2,2)</v>
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (70, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 3,1)</v>
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (70, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (70, 4,1)</v>
+        <f t="shared" si="10"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (70, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3327,27 +3333,27 @@
         <v>2</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (71,5,1,0)</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 2,2)</v>
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (71, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 3,1)</v>
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (71, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (71, 4,2)</v>
+        <f t="shared" si="10"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (71, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3374,27 +3380,27 @@
         <v>1</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (72,5,1,0)</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 1,1)</v>
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (72, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 2,1)</v>
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (72, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 3,1)</v>
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (72, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (72, 4,1)</v>
+        <f t="shared" si="10"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (72, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3412,27 +3418,27 @@
         <v>4</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (73,5,1,1)</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (73, 2,4)</v>
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (73, 1,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3459,28 +3465,28 @@
         <v>2</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (74,1,1,0)</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 2,1)</v>
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (74, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 3,1)</v>
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (74, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 4,1)</v>
+        <f t="shared" si="10"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (74, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (74, 5,2)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (74, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -3497,28 +3503,28 @@
         <v>3</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (75,1,1,0)</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (75, 5,3)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (75, 4,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -3538,28 +3544,28 @@
         <v>2</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (76,1,1,0)</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (76, 1,2)</v>
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (76, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (76, 5,2)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (76, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -3579,27 +3585,27 @@
         <v>2</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" ref="I77:I101" si="10">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
+        <f t="shared" ref="I77:I101" si="12">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
         <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (77,1,1,0)</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 2,1)</v>
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (77, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (77, 4,2)</v>
+        <f t="shared" si="10"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (77, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3623,28 +3629,28 @@
         <v>2</v>
       </c>
       <c r="I78" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (78,1,1,0)</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (78, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (78, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M78" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (78,1,1,0)</v>
-      </c>
-      <c r="J78" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K78" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 2,1)</v>
-      </c>
-      <c r="L78" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 3,2)</v>
-      </c>
-      <c r="M78" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (78, 5,2)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (78, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -3670,28 +3676,28 @@
         <v>1</v>
       </c>
       <c r="I79" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (79,1,1,0)</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (79, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (79, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M79" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (79,1,1,0)</v>
-      </c>
-      <c r="J79" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K79" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 2,1)</v>
-      </c>
-      <c r="L79" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 3,1)</v>
-      </c>
-      <c r="M79" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 4,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (79, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (79, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (79, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -3708,28 +3714,28 @@
         <v>4</v>
       </c>
       <c r="I80" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (80,1,1,1)</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M80" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (80,1,1,1)</v>
-      </c>
-      <c r="J80" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L80" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M80" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (80, 5,4)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (80, 4,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -3752,28 +3758,28 @@
         <v>2</v>
       </c>
       <c r="I81" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (81,3,1,0)</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (81, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M81" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (81,3,1,0)</v>
-      </c>
-      <c r="J81" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 1,1)</v>
-      </c>
-      <c r="K81" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L81" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M81" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 4,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (81, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (81, 5,2)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (81, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -3793,28 +3799,28 @@
         <v>2</v>
       </c>
       <c r="I82" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (82,3,1,0)</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (82, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M82" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (82,3,1,0)</v>
-      </c>
-      <c r="J82" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K82" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (82, 2,2)</v>
-      </c>
-      <c r="L82" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M82" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (82, 5,2)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (82, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -3831,27 +3837,27 @@
         <v>3</v>
       </c>
       <c r="I83" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (83,3,1,0)</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (83, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M83" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (83,3,1,0)</v>
-      </c>
-      <c r="J83" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K83" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (83, 2,3)</v>
-      </c>
-      <c r="L83" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M83" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3872,27 +3878,27 @@
         <v>2</v>
       </c>
       <c r="I84" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (84,3,1,0)</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (84, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (84, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M84" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (84,3,1,0)</v>
-      </c>
-      <c r="J84" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (84, 1,1)</v>
-      </c>
-      <c r="K84" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (84, 2,2)</v>
-      </c>
-      <c r="L84" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M84" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3919,28 +3925,28 @@
         <v>1</v>
       </c>
       <c r="I85" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (85,3,1,0)</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (85, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (85, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M85" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (85,3,1,0)</v>
-      </c>
-      <c r="J85" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 1,1)</v>
-      </c>
-      <c r="K85" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 2,1)</v>
-      </c>
-      <c r="L85" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M85" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 4,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (85, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (85, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (85, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -3966,28 +3972,28 @@
         <v>1</v>
       </c>
       <c r="I86" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (86,3,1,0)</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (86, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (86, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M86" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (86,3,1,0)</v>
-      </c>
-      <c r="J86" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 1,1)</v>
-      </c>
-      <c r="K86" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 2,1)</v>
-      </c>
-      <c r="L86" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M86" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 4,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (86, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (86, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (86, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4004,27 +4010,27 @@
         <v>4</v>
       </c>
       <c r="I87" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (87,3,1,1)</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M87" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (87,3,1,1)</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K87" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L87" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M87" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (87, 4,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (87, 3,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -4051,28 +4057,28 @@
         <v>1</v>
       </c>
       <c r="I88" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (88,4,1,0)</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (88, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (88, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (88, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M88" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (88,4,1,0)</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 1,1)</v>
-      </c>
-      <c r="K88" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 2,1)</v>
-      </c>
-      <c r="L88" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 3,1)</v>
-      </c>
-      <c r="M88" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (88, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (88, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4092,28 +4098,28 @@
         <v>1</v>
       </c>
       <c r="I89" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (89,4,1,0)</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (89, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M89" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (89,4,1,0)</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K89" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L89" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (89, 3,2)</v>
-      </c>
-      <c r="M89" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (89, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (89, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4130,27 +4136,27 @@
         <v>3</v>
       </c>
       <c r="I90" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (90,4,1,0)</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (90, 2,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M90" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (90,4,1,0)</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K90" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L90" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (90, 3,3)</v>
-      </c>
-      <c r="M90" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -4174,28 +4180,28 @@
         <v>1</v>
       </c>
       <c r="I91" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (91,4,1,0)</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (91, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (91, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M91" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (91,4,1,0)</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 1,2)</v>
-      </c>
-      <c r="K91" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 2,2)</v>
-      </c>
-      <c r="L91" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M91" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (91, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (91, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4215,27 +4221,27 @@
         <v>2</v>
       </c>
       <c r="I92" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (92,4,1,0)</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (92, 1,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (92, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M92" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (92,4,1,0)</v>
-      </c>
-      <c r="J92" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K92" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 2,2)</v>
-      </c>
-      <c r="L92" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (92, 3,2)</v>
-      </c>
-      <c r="M92" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -4259,27 +4265,27 @@
         <v>1</v>
       </c>
       <c r="I93" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (93,4,1,0)</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (93, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (93, 1,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M93" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (93,4,1,0)</v>
-      </c>
-      <c r="J93" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 1,1)</v>
-      </c>
-      <c r="K93" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 2,3)</v>
-      </c>
-      <c r="L93" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M93" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (93, 4,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (93, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -4297,27 +4303,27 @@
         <v>4</v>
       </c>
       <c r="I94" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (94,4,1,1)</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (94, 0,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M94" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (94,4,1,1)</v>
-      </c>
-      <c r="J94" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (94, 1,4)</v>
-      </c>
-      <c r="K94" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L94" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M94" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -4341,28 +4347,28 @@
         <v>1</v>
       </c>
       <c r="I95" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (95,2,1,0)</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="8"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (95, 1,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M95" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (95,2,1,0)</v>
-      </c>
-      <c r="J95" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K95" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 2,1)</v>
-      </c>
-      <c r="L95" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M95" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 4,3)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (95, 3,3)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (95, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (95, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4385,27 +4391,27 @@
         <v>1</v>
       </c>
       <c r="I96" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (96,2,1,0)</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (96, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (96, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M96" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (96,2,1,0)</v>
-      </c>
-      <c r="J96" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 1,2)</v>
-      </c>
-      <c r="K96" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L96" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 3,2)</v>
-      </c>
-      <c r="M96" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (96, 4,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (96, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -4432,28 +4438,28 @@
         <v>1</v>
       </c>
       <c r="I97" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (97,2,1,0)</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (97, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (97, 2,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M97" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (97,2,1,0)</v>
-      </c>
-      <c r="J97" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 1,1)</v>
-      </c>
-      <c r="K97" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L97" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 3,1)</v>
-      </c>
-      <c r="M97" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 4,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (97, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (97, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (97, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -4473,27 +4479,27 @@
         <v>2</v>
       </c>
       <c r="I98" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (98,2,1,0)</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (98, 0,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M98" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (98,2,1,0)</v>
-      </c>
-      <c r="J98" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (98, 1,2)</v>
-      </c>
-      <c r="K98" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L98" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M98" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (98, 4,2)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (98, 3,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -4514,28 +4520,28 @@
         <v>2</v>
       </c>
       <c r="I99" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (99,2,1,0)</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M99" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (99,2,1,0)</v>
-      </c>
-      <c r="J99" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K99" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L99" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M99" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (99, 4,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (99, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (99, 5,2)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (99, 4,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -4561,28 +4567,28 @@
         <v>1</v>
       </c>
       <c r="I100" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (100,2,1,0)</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="7"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (100, 0,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="9"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (100, 2,2)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
+      </c>
+      <c r="M100" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (100,2,1,0)</v>
-      </c>
-      <c r="J100" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 1,1)</v>
-      </c>
-      <c r="K100" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L100" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 3,2)</v>
-      </c>
-      <c r="M100" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 4,1)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (100, 3,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (100, 5,1)</v>
+        <f t="shared" si="11"/>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (100, 4,1)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -4599,27 +4605,27 @@
         <v>4</v>
       </c>
       <c r="I101" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (101,2,1,1)</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M101" t="str">
         <f t="shared" si="10"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (101,2,1,1)</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K101" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L101" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M101" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into cost(fkCard, fkRessource, nbRessource) values (101, 4,4)</v>
+        <v>sql = "insert into cost(fkCard, fkRessource, nbRessource) values (101, 3,4)"; command = new SQLiteCommand(sql, m_dbConnection); command.ExecuteNonQuery();</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
